--- a/BLACK_SUNRISE_YCbCr/45_Degree_GLCM/B_resmat.xlsx
+++ b/BLACK_SUNRISE_YCbCr/45_Degree_GLCM/B_resmat.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4TH YEAR\Project_1\MATRICES_WORKSPACES\BLACK_SUNRISE_YCbCr\45_Degree_GLCM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE9F11E-E4DB-4A73-A445-81B53B7AC6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +336,5618 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
+      <selection activeCell="B381" sqref="B381"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4.1440587192049025E-4</v>
+      </c>
+      <c r="B3">
+        <v>0.16880682989299245</v>
+      </c>
+      <c r="C3">
+        <v>0.99908719839509563</v>
+      </c>
+      <c r="D3">
+        <v>0.99979279706403967</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.3510639628707606E-4</v>
+      </c>
+      <c r="B4">
+        <v>-6.7557761886412877E-5</v>
+      </c>
+      <c r="C4">
+        <v>0.99972981458803323</v>
+      </c>
+      <c r="D4">
+        <v>0.99993244680185644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3.1011086463410671E-4</v>
+      </c>
+      <c r="B5">
+        <v>0.5751873536849551</v>
+      </c>
+      <c r="C5">
+        <v>0.9989599908763962</v>
+      </c>
+      <c r="D5">
+        <v>0.99984494456768291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6.6458048954241963E-4</v>
+      </c>
+      <c r="B6">
+        <v>5.409062950912856E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.99863327844757599</v>
+      </c>
+      <c r="D6">
+        <v>0.99966770975522889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>9.2784820403382E-5</v>
+      </c>
+      <c r="B7">
+        <v>0.28566789029073036</v>
+      </c>
+      <c r="C7">
+        <v>0.99977733347689735</v>
+      </c>
+      <c r="D7">
+        <v>0.99995360758979834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7.0593665576085043E-5</v>
+      </c>
+      <c r="B8">
+        <v>-3.5298078698424079E-5</v>
+      </c>
+      <c r="C8">
+        <v>0.99985882014404637</v>
+      </c>
+      <c r="D8">
+        <v>0.99996470316721198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3.7879942473474345E-3</v>
+      </c>
+      <c r="B9">
+        <v>0.12350179062107534</v>
+      </c>
+      <c r="C9">
+        <v>0.99190461835016808</v>
+      </c>
+      <c r="D9">
+        <v>0.99810600287632634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1.9134623006924001E-4</v>
+      </c>
+      <c r="B10">
+        <v>2.7682095246947501E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.99961189648582716</v>
+      </c>
+      <c r="D10">
+        <v>0.99990432688496544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1.1576709017723506E-3</v>
+      </c>
+      <c r="B11">
+        <v>0.19473474480219197</v>
+      </c>
+      <c r="C11">
+        <v>0.99740609243817524</v>
+      </c>
+      <c r="D11">
+        <v>0.99942116454911378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5.3647323054172675E-4</v>
+      </c>
+      <c r="B12">
+        <v>0.11036022050959289</v>
+      </c>
+      <c r="C12">
+        <v>0.99886081165799101</v>
+      </c>
+      <c r="D12">
+        <v>0.99973176338472913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3.8487443471567404E-5</v>
+      </c>
+      <c r="B13">
+        <v>0.1666474225005356</v>
+      </c>
+      <c r="C13">
+        <v>0.99991533017216994</v>
+      </c>
+      <c r="D13">
+        <v>0.99998075627826422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1.0579995344802048E-4</v>
+      </c>
+      <c r="B14">
+        <v>0.25532407568201437</v>
+      </c>
+      <c r="C14">
+        <v>0.99975214711409177</v>
+      </c>
+      <c r="D14">
+        <v>0.99994710002327603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1.2416291253802489E-4</v>
+      </c>
+      <c r="B15">
+        <v>7.9937914354201334E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.99974090192340803</v>
+      </c>
+      <c r="D15">
+        <v>0.99993791854373093</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1.799699450191818E-5</v>
+      </c>
+      <c r="B16">
+        <v>-8.9985782246405072E-6</v>
+      </c>
+      <c r="C16">
+        <v>0.99996400649683392</v>
+      </c>
+      <c r="D16">
+        <v>0.99999100150274911</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2.5657061304340854E-5</v>
+      </c>
+      <c r="B17">
+        <v>-1.2828695225480351E-5</v>
+      </c>
+      <c r="C17">
+        <v>0.99994868686481853</v>
+      </c>
+      <c r="D17">
+        <v>0.9999871714693479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4.9245892390553398E-4</v>
+      </c>
+      <c r="B18">
+        <v>0.4243346707146623</v>
+      </c>
+      <c r="C18">
+        <v>0.99865232313795038</v>
+      </c>
+      <c r="D18">
+        <v>0.99975377053804726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8.258433925646566E-5</v>
+      </c>
+      <c r="B19">
+        <v>-4.1293874741913268E-5</v>
+      </c>
+      <c r="C19">
+        <v>0.99983484155174673</v>
+      </c>
+      <c r="D19">
+        <v>0.99995870783037177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2.1856834233933316E-2</v>
+      </c>
+      <c r="B21">
+        <v>0.69908484142705762</v>
+      </c>
+      <c r="C21">
+        <v>0.90598637076327115</v>
+      </c>
+      <c r="D21">
+        <v>0.98907158288303343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>7.9455570431404021E-4</v>
+      </c>
+      <c r="B22">
+        <v>1.921040423355037E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.99839595720807561</v>
+      </c>
+      <c r="D22">
+        <v>0.99960272214784296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1.8591054497432511E-3</v>
+      </c>
+      <c r="B23">
+        <v>0.63382878076913163</v>
+      </c>
+      <c r="C23">
+        <v>0.99306720288786909</v>
+      </c>
+      <c r="D23">
+        <v>0.99907044727512839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3.172815318352357E-6</v>
+      </c>
+      <c r="B24">
+        <v>-1.5864101758694318E-6</v>
+      </c>
+      <c r="C24">
+        <v>0.99999365438446342</v>
+      </c>
+      <c r="D24">
+        <v>0.99999841359234076</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2.3508519724324555E-3</v>
+      </c>
+      <c r="B25">
+        <v>0.81148561575672895</v>
+      </c>
+      <c r="C25">
+        <v>0.98518426288801386</v>
+      </c>
+      <c r="D25">
+        <v>0.99882457401378377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4.8580225795415667E-3</v>
+      </c>
+      <c r="B26">
+        <v>0.64623245311055399</v>
+      </c>
+      <c r="C26">
+        <v>0.98143354452554887</v>
+      </c>
+      <c r="D26">
+        <v>0.9975709887102292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1.7854734394769462E-3</v>
+      </c>
+      <c r="B27">
+        <v>0.59967997614035995</v>
+      </c>
+      <c r="C27">
+        <v>0.99375759923546814</v>
+      </c>
+      <c r="D27">
+        <v>0.99910726328026156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>6.8593966589022105E-5</v>
+      </c>
+      <c r="B28">
+        <v>0.84320255273619393</v>
+      </c>
+      <c r="C28">
+        <v>0.9995199336081988</v>
+      </c>
+      <c r="D28">
+        <v>0.99996570301670551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2.2983662446610869E-5</v>
+      </c>
+      <c r="B29">
+        <v>-1.1491963287007956E-5</v>
+      </c>
+      <c r="C29">
+        <v>0.99995403346748002</v>
+      </c>
+      <c r="D29">
+        <v>0.99998850816877671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3.3670386293063272E-3</v>
+      </c>
+      <c r="B30">
+        <v>0.41110554624239992</v>
+      </c>
+      <c r="C30">
+        <v>0.99092682295322854</v>
+      </c>
+      <c r="D30">
+        <v>0.99831648068534673</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>8.7168378798906912E-4</v>
+      </c>
+      <c r="B31">
+        <v>0.652568629816075</v>
+      </c>
+      <c r="C31">
+        <v>0.99663048662076714</v>
+      </c>
+      <c r="D31">
+        <v>0.99956415810600552</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>5.098937599930072E-4</v>
+      </c>
+      <c r="B32">
+        <v>1.3829494218751539E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.9989733220116086</v>
+      </c>
+      <c r="D32">
+        <v>0.9997450531200035</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1.2708004709959789E-3</v>
+      </c>
+      <c r="B33">
+        <v>0.48864952253841143</v>
+      </c>
+      <c r="C33">
+        <v>0.99624562959060947</v>
+      </c>
+      <c r="D33">
+        <v>0.99936459976450198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>7.6736795855599947E-3</v>
+      </c>
+      <c r="B34">
+        <v>0.79285781545885814</v>
+      </c>
+      <c r="C34">
+        <v>0.95534264452326034</v>
+      </c>
+      <c r="D34">
+        <v>0.99616316020721996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1.7553019858613711E-2</v>
+      </c>
+      <c r="B35">
+        <v>0.73700567019800012</v>
+      </c>
+      <c r="C35">
+        <v>0.91601213234307377</v>
+      </c>
+      <c r="D35">
+        <v>0.99122349007069321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1.0736750587902561E-3</v>
+      </c>
+      <c r="B36">
+        <v>0.61046921719218339</v>
+      </c>
+      <c r="C36">
+        <v>0.99617115637630482</v>
+      </c>
+      <c r="D36">
+        <v>0.99946316247060485</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2.5829840262829953E-4</v>
+      </c>
+      <c r="B37">
+        <v>0.41243946946895599</v>
+      </c>
+      <c r="C37">
+        <v>0.99930230457497349</v>
+      </c>
+      <c r="D37">
+        <v>0.99987085079868587</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>9.2134982221526486E-4</v>
+      </c>
+      <c r="B38">
+        <v>0.67596989216564962</v>
+      </c>
+      <c r="C38">
+        <v>0.99624792479230173</v>
+      </c>
+      <c r="D38">
+        <v>0.99953932508889232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4.9147687809653583E-3</v>
+      </c>
+      <c r="B39">
+        <v>0.42730954470904159</v>
+      </c>
+      <c r="C39">
+        <v>0.98652749411909546</v>
+      </c>
+      <c r="D39">
+        <v>0.9975426156095174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>7.7922839958926206E-3</v>
+      </c>
+      <c r="B40">
+        <v>0.46152839599851675</v>
+      </c>
+      <c r="C40">
+        <v>0.97779936270172019</v>
+      </c>
+      <c r="D40">
+        <v>0.9961038580020537</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>3.5682130306160977E-4</v>
+      </c>
+      <c r="B41">
+        <v>0.74386908394886442</v>
+      </c>
+      <c r="C41">
+        <v>0.99825018523248399</v>
+      </c>
+      <c r="D41">
+        <v>0.99982158934846921</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>4.8506599255155186E-3</v>
+      </c>
+      <c r="B42">
+        <v>8.6165440399224094E-2</v>
+      </c>
+      <c r="C42">
+        <v>0.98986484062203228</v>
+      </c>
+      <c r="D42">
+        <v>0.99757467003724221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2.9771398192450824E-4</v>
+      </c>
+      <c r="B43">
+        <v>0.67577700052903966</v>
+      </c>
+      <c r="C43">
+        <v>0.9987841363329707</v>
+      </c>
+      <c r="D43">
+        <v>0.99985114300903777</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1.4227564692042627E-4</v>
+      </c>
+      <c r="B44">
+        <v>-7.1121720380527839E-5</v>
+      </c>
+      <c r="C44">
+        <v>0.99971547907571967</v>
+      </c>
+      <c r="D44">
+        <v>0.99992886217653987</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1.2355247048780762E-4</v>
+      </c>
+      <c r="B45">
+        <v>0.15383499976749618</v>
+      </c>
+      <c r="C45">
+        <v>0.99973045690612028</v>
+      </c>
+      <c r="D45">
+        <v>0.99993822376475605</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2.5724326499790469E-4</v>
+      </c>
+      <c r="B46">
+        <v>0.27901668026982579</v>
+      </c>
+      <c r="C46">
+        <v>0.9993860653011889</v>
+      </c>
+      <c r="D46">
+        <v>0.99987137836750106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>5.2852300798529323E-4</v>
+      </c>
+      <c r="B47">
+        <v>0.197410070032325</v>
+      </c>
+      <c r="C47">
+        <v>0.99881323447545534</v>
+      </c>
+      <c r="D47">
+        <v>0.99973573849600739</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2.7039032775170443E-4</v>
+      </c>
+      <c r="B48">
+        <v>0.54531931006769485</v>
+      </c>
+      <c r="C48">
+        <v>0.99913500099057284</v>
+      </c>
+      <c r="D48">
+        <v>0.99986480483612417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1.0455132842917902E-4</v>
+      </c>
+      <c r="B49">
+        <v>0.48984569933329297</v>
+      </c>
+      <c r="C49">
+        <v>0.99969056000380163</v>
+      </c>
+      <c r="D49">
+        <v>0.99994772433578538</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>8.38117587897582E-5</v>
+      </c>
+      <c r="B50">
+        <v>0.38884698013567431</v>
+      </c>
+      <c r="C50">
+        <v>0.99977905815582113</v>
+      </c>
+      <c r="D50">
+        <v>0.99995809412060521</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>7.7397883167895361E-5</v>
+      </c>
+      <c r="B51">
+        <v>0.23073052988065831</v>
+      </c>
+      <c r="C51">
+        <v>0.99982199592106147</v>
+      </c>
+      <c r="D51">
+        <v>0.99996130105841596</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1.0135553645233098E-4</v>
+      </c>
+      <c r="B52">
+        <v>0.18185107149174798</v>
+      </c>
+      <c r="C52">
+        <v>0.999774783427543</v>
+      </c>
+      <c r="D52">
+        <v>0.9999493222317738</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1.681153882892349E-4</v>
+      </c>
+      <c r="B53">
+        <v>0.11991593427588843</v>
+      </c>
+      <c r="C53">
+        <v>0.99964089090871133</v>
+      </c>
+      <c r="D53">
+        <v>0.99991594230585545</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1.7381512871766E-4</v>
+      </c>
+      <c r="B54">
+        <v>0.73247120371997398</v>
+      </c>
+      <c r="C54">
+        <v>0.99917650884150555</v>
+      </c>
+      <c r="D54">
+        <v>0.99991309243564119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>9.2926367469576291E-5</v>
+      </c>
+      <c r="B55">
+        <v>0.72722625617194292</v>
+      </c>
+      <c r="C55">
+        <v>0.99956641030225646</v>
+      </c>
+      <c r="D55">
+        <v>0.99995353681626531</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1.9882692116512577E-4</v>
+      </c>
+      <c r="B56">
+        <v>0.49998637386812567</v>
+      </c>
+      <c r="C56">
+        <v>0.99940363786005237</v>
+      </c>
+      <c r="D56">
+        <v>0.99990058653941749</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1.3034198478257327E-5</v>
+      </c>
+      <c r="B57">
+        <v>-6.5171417119879556E-6</v>
+      </c>
+      <c r="C57">
+        <v>0.99997393185787886</v>
+      </c>
+      <c r="D57">
+        <v>0.99999348290076084</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1.5980056889002524E-4</v>
+      </c>
+      <c r="B58">
+        <v>0.30764883580619179</v>
+      </c>
+      <c r="C58">
+        <v>0.99960942856932344</v>
+      </c>
+      <c r="D58">
+        <v>0.99992009971555496</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>3.3647262290503734E-5</v>
+      </c>
+      <c r="B59">
+        <v>-1.6823914184578523E-5</v>
+      </c>
+      <c r="C59">
+        <v>0.99993270717362637</v>
+      </c>
+      <c r="D59">
+        <v>0.99998317636885481</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1.3016506986096316E-4</v>
+      </c>
+      <c r="B60">
+        <v>0.24012722760459079</v>
+      </c>
+      <c r="C60">
+        <v>0.99969859673446371</v>
+      </c>
+      <c r="D60">
+        <v>0.99993491746506946</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>7.617224186622816E-2</v>
+      </c>
+      <c r="B61">
+        <v>0.77772889328825801</v>
+      </c>
+      <c r="C61">
+        <v>0.58694071662988778</v>
+      </c>
+      <c r="D61">
+        <v>0.96191387906688586</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>4.3585273015505216E-2</v>
+      </c>
+      <c r="B62">
+        <v>0.83807423625281441</v>
+      </c>
+      <c r="C62">
+        <v>0.68916154395436025</v>
+      </c>
+      <c r="D62">
+        <v>0.97820736349224735</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>5.0867381973036134E-2</v>
+      </c>
+      <c r="B63">
+        <v>0.79909118284371183</v>
+      </c>
+      <c r="C63">
+        <v>0.69854241080257784</v>
+      </c>
+      <c r="D63">
+        <v>0.97456630901348185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>5.1312095969147903E-2</v>
+      </c>
+      <c r="B64">
+        <v>0.78558031589042887</v>
+      </c>
+      <c r="C64">
+        <v>0.71202162404491509</v>
+      </c>
+      <c r="D64">
+        <v>0.97434395201542601</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>4.2301357705469222E-2</v>
+      </c>
+      <c r="B65">
+        <v>0.78066140084852154</v>
+      </c>
+      <c r="C65">
+        <v>0.76663242693763023</v>
+      </c>
+      <c r="D65">
+        <v>0.97884932114726531</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>4.4747246501944046E-2</v>
+      </c>
+      <c r="B66">
+        <v>0.81318667784962939</v>
+      </c>
+      <c r="C66">
+        <v>0.71773985352992098</v>
+      </c>
+      <c r="D66">
+        <v>0.97762637674902797</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>6.1947160072032811E-2</v>
+      </c>
+      <c r="B67">
+        <v>0.78990786219492359</v>
+      </c>
+      <c r="C67">
+        <v>0.64703942918680935</v>
+      </c>
+      <c r="D67">
+        <v>0.96902641996398375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>5.8256220271514475E-2</v>
+      </c>
+      <c r="B68">
+        <v>0.81657576974826751</v>
+      </c>
+      <c r="C68">
+        <v>0.62754162425278548</v>
+      </c>
+      <c r="D68">
+        <v>0.97087188986424278</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>6.3181382148166987E-2</v>
+      </c>
+      <c r="B69">
+        <v>0.80598666137807473</v>
+      </c>
+      <c r="C69">
+        <v>0.61515838512142607</v>
+      </c>
+      <c r="D69">
+        <v>0.96840930892591659</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>5.5237534958647111E-2</v>
+      </c>
+      <c r="B70">
+        <v>0.79445952239974305</v>
+      </c>
+      <c r="C70">
+        <v>0.67907191566439806</v>
+      </c>
+      <c r="D70">
+        <v>0.97238123252067643</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>5.9255119556105545E-2</v>
+      </c>
+      <c r="B71">
+        <v>0.79316779247799074</v>
+      </c>
+      <c r="C71">
+        <v>0.65777474755812881</v>
+      </c>
+      <c r="D71">
+        <v>0.97037244022194713</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>3.2185309356903377E-2</v>
+      </c>
+      <c r="B72">
+        <v>0.81527137040469844</v>
+      </c>
+      <c r="C72">
+        <v>0.79462876115488545</v>
+      </c>
+      <c r="D72">
+        <v>0.98390734532154833</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>6.9409189498144286E-2</v>
+      </c>
+      <c r="B73">
+        <v>0.78266754558834117</v>
+      </c>
+      <c r="C73">
+        <v>0.61604464026217531</v>
+      </c>
+      <c r="D73">
+        <v>0.96529540525092783</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>8.1349707041811492E-2</v>
+      </c>
+      <c r="B74">
+        <v>0.78416292071764049</v>
+      </c>
+      <c r="C74">
+        <v>0.54836529735734152</v>
+      </c>
+      <c r="D74">
+        <v>0.95932514647909428</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>6.0806896743626007E-2</v>
+      </c>
+      <c r="B75">
+        <v>0.77757753547705399</v>
+      </c>
+      <c r="C75">
+        <v>0.66950970701305423</v>
+      </c>
+      <c r="D75">
+        <v>0.96959655162818714</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>6.952436876100998E-2</v>
+      </c>
+      <c r="B76">
+        <v>0.7943495367851986</v>
+      </c>
+      <c r="C76">
+        <v>0.59724276837501833</v>
+      </c>
+      <c r="D76">
+        <v>0.96523781561949495</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>5.5712037962606653E-2</v>
+      </c>
+      <c r="B77">
+        <v>0.79263261936938223</v>
+      </c>
+      <c r="C77">
+        <v>0.67872983597675007</v>
+      </c>
+      <c r="D77">
+        <v>0.9721439810186967</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>6.5618769814958552E-2</v>
+      </c>
+      <c r="B78">
+        <v>0.81011020818182067</v>
+      </c>
+      <c r="C78">
+        <v>0.59312831042036485</v>
+      </c>
+      <c r="D78">
+        <v>0.96719061509252069</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0.11735928175904521</v>
+      </c>
+      <c r="B79">
+        <v>0.73486485063927998</v>
+      </c>
+      <c r="C79">
+        <v>0.45377713640106121</v>
+      </c>
+      <c r="D79">
+        <v>0.94132035912047751</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>9.0844760853016543E-2</v>
+      </c>
+      <c r="B80">
+        <v>0.79221227314027953</v>
+      </c>
+      <c r="C80">
+        <v>0.48021043298518645</v>
+      </c>
+      <c r="D80">
+        <v>0.95457761957349174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>7.617224186622816E-2</v>
+      </c>
+      <c r="B81">
+        <v>0.77772889328825801</v>
+      </c>
+      <c r="C81">
+        <v>0.58694071662988778</v>
+      </c>
+      <c r="D81">
+        <v>0.96191387906688586</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>4.3585273015505216E-2</v>
+      </c>
+      <c r="B82">
+        <v>0.83807423625281441</v>
+      </c>
+      <c r="C82">
+        <v>0.68916154395436025</v>
+      </c>
+      <c r="D82">
+        <v>0.97820736349224735</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>5.0867381973036134E-2</v>
+      </c>
+      <c r="B83">
+        <v>0.79909118284371183</v>
+      </c>
+      <c r="C83">
+        <v>0.69854241080257784</v>
+      </c>
+      <c r="D83">
+        <v>0.97456630901348185</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>5.1312095969147903E-2</v>
+      </c>
+      <c r="B84">
+        <v>0.78558031589042887</v>
+      </c>
+      <c r="C84">
+        <v>0.71202162404491509</v>
+      </c>
+      <c r="D84">
+        <v>0.97434395201542601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>4.2301357705469222E-2</v>
+      </c>
+      <c r="B85">
+        <v>0.78066140084852154</v>
+      </c>
+      <c r="C85">
+        <v>0.76663242693763023</v>
+      </c>
+      <c r="D85">
+        <v>0.97884932114726531</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>4.4747246501944046E-2</v>
+      </c>
+      <c r="B86">
+        <v>0.81318667784962939</v>
+      </c>
+      <c r="C86">
+        <v>0.71773985352992098</v>
+      </c>
+      <c r="D86">
+        <v>0.97762637674902797</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>6.1947160072032811E-2</v>
+      </c>
+      <c r="B87">
+        <v>0.78990786219492359</v>
+      </c>
+      <c r="C87">
+        <v>0.64703942918680935</v>
+      </c>
+      <c r="D87">
+        <v>0.96902641996398375</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>5.8256220271514475E-2</v>
+      </c>
+      <c r="B88">
+        <v>0.81657576974826751</v>
+      </c>
+      <c r="C88">
+        <v>0.62754162425278548</v>
+      </c>
+      <c r="D88">
+        <v>0.97087188986424278</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>6.3181382148166987E-2</v>
+      </c>
+      <c r="B89">
+        <v>0.80598666137807473</v>
+      </c>
+      <c r="C89">
+        <v>0.61515838512142607</v>
+      </c>
+      <c r="D89">
+        <v>0.96840930892591659</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>5.5237534958647111E-2</v>
+      </c>
+      <c r="B90">
+        <v>0.79445952239974305</v>
+      </c>
+      <c r="C90">
+        <v>0.67907191566439806</v>
+      </c>
+      <c r="D90">
+        <v>0.97238123252067643</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>5.9255119556105545E-2</v>
+      </c>
+      <c r="B91">
+        <v>0.79316779247799074</v>
+      </c>
+      <c r="C91">
+        <v>0.65777474755812881</v>
+      </c>
+      <c r="D91">
+        <v>0.97037244022194713</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>3.2185309356903377E-2</v>
+      </c>
+      <c r="B92">
+        <v>0.81527137040469844</v>
+      </c>
+      <c r="C92">
+        <v>0.79462876115488545</v>
+      </c>
+      <c r="D92">
+        <v>0.98390734532154833</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>6.9409189498144286E-2</v>
+      </c>
+      <c r="B93">
+        <v>0.78266754558834117</v>
+      </c>
+      <c r="C93">
+        <v>0.61604464026217531</v>
+      </c>
+      <c r="D93">
+        <v>0.96529540525092783</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>8.1349707041811492E-2</v>
+      </c>
+      <c r="B94">
+        <v>0.78416292071764049</v>
+      </c>
+      <c r="C94">
+        <v>0.54836529735734152</v>
+      </c>
+      <c r="D94">
+        <v>0.95932514647909428</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>6.0806896743626007E-2</v>
+      </c>
+      <c r="B95">
+        <v>0.77757753547705399</v>
+      </c>
+      <c r="C95">
+        <v>0.66950970701305423</v>
+      </c>
+      <c r="D95">
+        <v>0.96959655162818714</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>6.952436876100998E-2</v>
+      </c>
+      <c r="B96">
+        <v>0.7943495367851986</v>
+      </c>
+      <c r="C96">
+        <v>0.59724276837501833</v>
+      </c>
+      <c r="D96">
+        <v>0.96523781561949495</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>5.5712037962606653E-2</v>
+      </c>
+      <c r="B97">
+        <v>0.79263261936938223</v>
+      </c>
+      <c r="C97">
+        <v>0.67872983597675007</v>
+      </c>
+      <c r="D97">
+        <v>0.9721439810186967</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>6.5618769814958552E-2</v>
+      </c>
+      <c r="B98">
+        <v>0.81011020818182067</v>
+      </c>
+      <c r="C98">
+        <v>0.59312831042036485</v>
+      </c>
+      <c r="D98">
+        <v>0.96719061509252069</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>0.11735928175904521</v>
+      </c>
+      <c r="B99">
+        <v>0.73486485063927998</v>
+      </c>
+      <c r="C99">
+        <v>0.45377713640106121</v>
+      </c>
+      <c r="D99">
+        <v>0.94132035912047751</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>9.0844760853016543E-2</v>
+      </c>
+      <c r="B100">
+        <v>0.79221227314027953</v>
+      </c>
+      <c r="C100">
+        <v>0.48021043298518645</v>
+      </c>
+      <c r="D100">
+        <v>0.95457761957349174</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>1.16240885988033E-5</v>
+      </c>
+      <c r="B101">
+        <v>0.72168238355297631</v>
+      </c>
+      <c r="C101">
+        <v>0.99994769258092131</v>
+      </c>
+      <c r="D101">
+        <v>0.99999418795570072</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>4.5195186712615107E-4</v>
+      </c>
+      <c r="B102">
+        <v>0.40860890887145612</v>
+      </c>
+      <c r="C102">
+        <v>0.99878421432907705</v>
+      </c>
+      <c r="D102">
+        <v>0.99977402406643701</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>1.6596263569629188E-3</v>
+      </c>
+      <c r="B103">
+        <v>0.68399060555403923</v>
+      </c>
+      <c r="C103">
+        <v>0.99309160788090522</v>
+      </c>
+      <c r="D103">
+        <v>0.99917018682151848</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>1.2935311856854363E-3</v>
+      </c>
+      <c r="B104">
+        <v>0.72984266450767599</v>
+      </c>
+      <c r="C104">
+        <v>0.99392008013630639</v>
+      </c>
+      <c r="D104">
+        <v>0.99935323440715729</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>1.6404643242362129E-3</v>
+      </c>
+      <c r="B105">
+        <v>0.89507312132280148</v>
+      </c>
+      <c r="C105">
+        <v>0.98273027075196062</v>
+      </c>
+      <c r="D105">
+        <v>0.99917976783788198</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>6.1811064180488317E-4</v>
+      </c>
+      <c r="B106">
+        <v>0.81965097201858628</v>
+      </c>
+      <c r="C106">
+        <v>0.99595841703853405</v>
+      </c>
+      <c r="D106">
+        <v>0.99969094467909758</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>3.6284370507403936E-4</v>
+      </c>
+      <c r="B109">
+        <v>0.62699003684373078</v>
+      </c>
+      <c r="C109">
+        <v>0.99866465706420637</v>
+      </c>
+      <c r="D109">
+        <v>0.99981857814746311</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>2.1362492532179517E-4</v>
+      </c>
+      <c r="B110">
+        <v>0.87885651784200225</v>
+      </c>
+      <c r="C110">
+        <v>0.99806081791696633</v>
+      </c>
+      <c r="D110">
+        <v>0.99989318753733913</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2.2819501546021229E-5</v>
+      </c>
+      <c r="B111">
+        <v>0.40823742156721865</v>
+      </c>
+      <c r="C111">
+        <v>0.99993914926877192</v>
+      </c>
+      <c r="D111">
+        <v>0.99998859024922693</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>1.3670780707230787E-3</v>
+      </c>
+      <c r="B112">
+        <v>0.67812299510205487</v>
+      </c>
+      <c r="C112">
+        <v>0.99438893523872851</v>
+      </c>
+      <c r="D112">
+        <v>0.99931646096463844</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>3.8611784594941512E-4</v>
+      </c>
+      <c r="B113">
+        <v>0.86341128742636397</v>
+      </c>
+      <c r="C113">
+        <v>0.99680386016473588</v>
+      </c>
+      <c r="D113">
+        <v>0.99980694107702539</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>6.3745223092344518E-5</v>
+      </c>
+      <c r="B114">
+        <v>0.80671499304728456</v>
+      </c>
+      <c r="C114">
+        <v>0.99962395732927267</v>
+      </c>
+      <c r="D114">
+        <v>0.99996812738845398</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>6.2728638760025884E-5</v>
+      </c>
+      <c r="B115">
+        <v>0.31246863424968851</v>
+      </c>
+      <c r="C115">
+        <v>0.99984603780226378</v>
+      </c>
+      <c r="D115">
+        <v>0.99996863568062011</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>6.4887512861632005E-5</v>
+      </c>
+      <c r="B116">
+        <v>0.81145133342316966</v>
+      </c>
+      <c r="C116">
+        <v>0.99959837690071596</v>
+      </c>
+      <c r="D116">
+        <v>0.99996755624356914</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>1.5165807776419595E-4</v>
+      </c>
+      <c r="B117">
+        <v>0.92555630618993512</v>
+      </c>
+      <c r="C117">
+        <v>0.997812157824843</v>
+      </c>
+      <c r="D117">
+        <v>0.99992417096111796</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>6.7566529998003711E-4</v>
+      </c>
+      <c r="B118">
+        <v>0.53764838918981417</v>
+      </c>
+      <c r="C118">
+        <v>0.99786396645711162</v>
+      </c>
+      <c r="D118">
+        <v>0.99966216735001012</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>6.5159314524011205E-4</v>
+      </c>
+      <c r="B119">
+        <v>0.73273620306726428</v>
+      </c>
+      <c r="C119">
+        <v>0.99691918322293749</v>
+      </c>
+      <c r="D119">
+        <v>0.99967420342737978</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>5.4348416830617727E-5</v>
+      </c>
+      <c r="B120">
+        <v>0.58318669597082029</v>
+      </c>
+      <c r="C120">
+        <v>0.99981884992671066</v>
+      </c>
+      <c r="D120">
+        <v>0.99997282579158464</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>7.1149945389296296E-3</v>
+      </c>
+      <c r="B121">
+        <v>0.78312114747507244</v>
+      </c>
+      <c r="C121">
+        <v>0.96013883078730489</v>
+      </c>
+      <c r="D121">
+        <v>0.99644250273053514</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>8.5688124017865366E-3</v>
+      </c>
+      <c r="B122">
+        <v>0.79808016402301085</v>
+      </c>
+      <c r="C122">
+        <v>0.94908875026310646</v>
+      </c>
+      <c r="D122">
+        <v>0.99571559379910668</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>4.6923337473185056E-3</v>
+      </c>
+      <c r="B123">
+        <v>0.80996995549556539</v>
+      </c>
+      <c r="C123">
+        <v>0.97067155357408208</v>
+      </c>
+      <c r="D123">
+        <v>0.99765383312634082</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>1.054923360071589E-2</v>
+      </c>
+      <c r="B124">
+        <v>0.78751620692932411</v>
+      </c>
+      <c r="C124">
+        <v>0.93996360399999335</v>
+      </c>
+      <c r="D124">
+        <v>0.99472538319964221</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>4.6001894195643349E-3</v>
+      </c>
+      <c r="B125">
+        <v>0.72748460233998102</v>
+      </c>
+      <c r="C125">
+        <v>0.97856539355593575</v>
+      </c>
+      <c r="D125">
+        <v>0.9976999052902179</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>7.5734476891148902E-4</v>
+      </c>
+      <c r="B126">
+        <v>0.81967457865202598</v>
+      </c>
+      <c r="C126">
+        <v>0.99505223523365505</v>
+      </c>
+      <c r="D126">
+        <v>0.99962132761554423</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>3.1687947297940281E-3</v>
+      </c>
+      <c r="B127">
+        <v>0.76766608053158758</v>
+      </c>
+      <c r="C127">
+        <v>0.9832199937455387</v>
+      </c>
+      <c r="D127">
+        <v>0.99841560263510298</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>1.0660140482471474E-2</v>
+      </c>
+      <c r="B128">
+        <v>0.78080825013103095</v>
+      </c>
+      <c r="C128">
+        <v>0.9408411782665318</v>
+      </c>
+      <c r="D128">
+        <v>0.99466992975876423</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>8.9501017575263526E-3</v>
+      </c>
+      <c r="B129">
+        <v>0.73837224456435613</v>
+      </c>
+      <c r="C129">
+        <v>0.95693821516627542</v>
+      </c>
+      <c r="D129">
+        <v>0.99552494912123668</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>1.5276706877254074E-2</v>
+      </c>
+      <c r="B130">
+        <v>0.79421711194769407</v>
+      </c>
+      <c r="C130">
+        <v>0.91075364148615223</v>
+      </c>
+      <c r="D130">
+        <v>0.99236164656137293</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>3.6796193497224423E-3</v>
+      </c>
+      <c r="B131">
+        <v>0.74987304906728314</v>
+      </c>
+      <c r="C131">
+        <v>0.98163395798566433</v>
+      </c>
+      <c r="D131">
+        <v>0.99816019032513881</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>1.5442931349150639E-3</v>
+      </c>
+      <c r="B132">
+        <v>0.84114275680298434</v>
+      </c>
+      <c r="C132">
+        <v>0.98875958452492851</v>
+      </c>
+      <c r="D132">
+        <v>0.99922785343254239</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>3.6529036352737918E-3</v>
+      </c>
+      <c r="B133">
+        <v>0.77670627972507866</v>
+      </c>
+      <c r="C133">
+        <v>0.9800089637259618</v>
+      </c>
+      <c r="D133">
+        <v>0.99817354818236304</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>1.0762341840973853E-3</v>
+      </c>
+      <c r="B135">
+        <v>0.67845063891751545</v>
+      </c>
+      <c r="C135">
+        <v>0.99559024378835059</v>
+      </c>
+      <c r="D135">
+        <v>0.99946188290795135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>3.181673560292714E-3</v>
+      </c>
+      <c r="B136">
+        <v>0.77192454971656443</v>
+      </c>
+      <c r="C136">
+        <v>0.98289454998780168</v>
+      </c>
+      <c r="D136">
+        <v>0.99840916321985362</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>1.9411615416800993E-3</v>
+      </c>
+      <c r="B137">
+        <v>0.86302445976936848</v>
+      </c>
+      <c r="C137">
+        <v>0.98401240796881972</v>
+      </c>
+      <c r="D137">
+        <v>0.99902941922916</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>8.1119813364439255E-3</v>
+      </c>
+      <c r="B138">
+        <v>0.88502133715145748</v>
+      </c>
+      <c r="C138">
+        <v>0.92145086744832638</v>
+      </c>
+      <c r="D138">
+        <v>0.99594400933177796</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>2.9110021109381057E-3</v>
+      </c>
+      <c r="B139">
+        <v>0.72370004778452279</v>
+      </c>
+      <c r="C139">
+        <v>0.98657417407448733</v>
+      </c>
+      <c r="D139">
+        <v>0.99854449894453101</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>2.5614296351451973E-3</v>
+      </c>
+      <c r="B140">
+        <v>0.71425334454238942</v>
+      </c>
+      <c r="C140">
+        <v>0.98850250931971806</v>
+      </c>
+      <c r="D140">
+        <v>0.99871928518242736</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>8.0527802223717736E-5</v>
+      </c>
+      <c r="B141">
+        <v>0.58819502627899456</v>
+      </c>
+      <c r="C141">
+        <v>0.99972393028614448</v>
+      </c>
+      <c r="D141">
+        <v>0.99995973609888811</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>8.2947076447343536E-5</v>
+      </c>
+      <c r="B142">
+        <v>0.71305283207194614</v>
+      </c>
+      <c r="C142">
+        <v>0.99962844143914187</v>
+      </c>
+      <c r="D142">
+        <v>0.9999585264617763</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>1.0807336475045008E-4</v>
+      </c>
+      <c r="B143">
+        <v>0.64812138720712209</v>
+      </c>
+      <c r="C143">
+        <v>0.99958482579091312</v>
+      </c>
+      <c r="D143">
+        <v>0.99994596331762486</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>4.4332996217841261E-5</v>
+      </c>
+      <c r="B145">
+        <v>0.70368153554715207</v>
+      </c>
+      <c r="C145">
+        <v>0.99980605630061159</v>
+      </c>
+      <c r="D145">
+        <v>0.99997783350189107</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>7.1807842214234713E-5</v>
+      </c>
+      <c r="B146">
+        <v>0.71871409149487098</v>
+      </c>
+      <c r="C146">
+        <v>0.99967291313516171</v>
+      </c>
+      <c r="D146">
+        <v>0.99996409607889292</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>7.2456475797524398E-5</v>
+      </c>
+      <c r="B147">
+        <v>0.63996376811594202</v>
+      </c>
+      <c r="C147">
+        <v>0.99972630104021842</v>
+      </c>
+      <c r="D147">
+        <v>0.99996377176210127</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>4.2395695988943205E-5</v>
+      </c>
+      <c r="B148">
+        <v>0.4444232457875914</v>
+      </c>
+      <c r="C148">
+        <v>0.99988129676040605</v>
+      </c>
+      <c r="D148">
+        <v>0.99997880215200552</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>1.2068139733972944E-4</v>
+      </c>
+      <c r="B150">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="C150">
+        <v>0.99966815844274459</v>
+      </c>
+      <c r="D150">
+        <v>0.99993965930133011</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>5.2320923464299144E-5</v>
+      </c>
+      <c r="B151">
+        <v>0.19999058212290716</v>
+      </c>
+      <c r="C151">
+        <v>0.99988228228506271</v>
+      </c>
+      <c r="D151">
+        <v>0.99997383953826779</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>6.160227517736322E-5</v>
+      </c>
+      <c r="B152">
+        <v>0.66663586268268493</v>
+      </c>
+      <c r="C152">
+        <v>0.99975361177091215</v>
+      </c>
+      <c r="D152">
+        <v>0.99996919886241131</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>6.4396798763581467E-5</v>
+      </c>
+      <c r="B153">
+        <v>0.63997274521152092</v>
+      </c>
+      <c r="C153">
+        <v>0.9997567429410702</v>
+      </c>
+      <c r="D153">
+        <v>0.99996780160061816</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>1.008551677767739E-4</v>
+      </c>
+      <c r="B154">
+        <v>0.74463041351812076</v>
+      </c>
+      <c r="C154">
+        <v>0.9995042169490449</v>
+      </c>
+      <c r="D154">
+        <v>0.9999495724161116</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>7.3582013285641292E-5</v>
+      </c>
+      <c r="B155">
+        <v>0.67853463335317132</v>
+      </c>
+      <c r="C155">
+        <v>0.99969752778451582</v>
+      </c>
+      <c r="D155">
+        <v>0.99996320899335722</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>3.0635847004580061E-5</v>
+      </c>
+      <c r="B158">
+        <v>-1.5318158144664696E-5</v>
+      </c>
+      <c r="C158">
+        <v>0.99993872971382347</v>
+      </c>
+      <c r="D158">
+        <v>0.99998468207649771</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>9.5253718863940641E-5</v>
+      </c>
+      <c r="B159">
+        <v>0.54995236809932835</v>
+      </c>
+      <c r="C159">
+        <v>0.99969310282673651</v>
+      </c>
+      <c r="D159">
+        <v>0.99995237314056806</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>1.0458110719563488E-4</v>
+      </c>
+      <c r="B160">
+        <v>0.56609022095574157</v>
+      </c>
+      <c r="C160">
+        <v>0.99965446717686901</v>
+      </c>
+      <c r="D160">
+        <v>0.9999477094464021</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>7.9123313684377106E-5</v>
+      </c>
+      <c r="B162">
+        <v>0.76919120079055714</v>
+      </c>
+      <c r="C162">
+        <v>0.99957807403330956</v>
+      </c>
+      <c r="D162">
+        <v>0.99996043834315784</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>1.1018455913655372E-4</v>
+      </c>
+      <c r="B163">
+        <v>0.79624118911282427</v>
+      </c>
+      <c r="C163">
+        <v>0.99934906785358091</v>
+      </c>
+      <c r="D163">
+        <v>0.99994490772043165</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>4.5966972730093427E-5</v>
+      </c>
+      <c r="B164">
+        <v>0.59997701519295754</v>
+      </c>
+      <c r="C164">
+        <v>0.99983912431141531</v>
+      </c>
+      <c r="D164">
+        <v>0.99997701651363491</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>9.411011824936358E-5</v>
+      </c>
+      <c r="B165">
+        <v>0.78718697708512542</v>
+      </c>
+      <c r="C165">
+        <v>0.99946367900510302</v>
+      </c>
+      <c r="D165">
+        <v>0.99995294494087528</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>2.9002179997196457E-5</v>
+      </c>
+      <c r="B166">
+        <v>0.24998549862962044</v>
+      </c>
+      <c r="C166">
+        <v>0.99993232983546765</v>
+      </c>
+      <c r="D166">
+        <v>0.99998549891000144</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>7.7162809240675085E-5</v>
+      </c>
+      <c r="B167">
+        <v>0.689616586212219</v>
+      </c>
+      <c r="C167">
+        <v>0.99967423833605429</v>
+      </c>
+      <c r="D167">
+        <v>0.99996141859537968</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>3.674967499506176E-5</v>
+      </c>
+      <c r="B168">
+        <v>0.33331495798936989</v>
+      </c>
+      <c r="C168">
+        <v>0.99990812868240697</v>
+      </c>
+      <c r="D168">
+        <v>0.99998162516250255</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>7.9896135024468191E-5</v>
+      </c>
+      <c r="B169">
+        <v>0.77773782252765811</v>
+      </c>
+      <c r="C169">
+        <v>0.99956064227260577</v>
+      </c>
+      <c r="D169">
+        <v>0.99996005193248771</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>7.8184693569308955E-5</v>
+      </c>
+      <c r="B170">
+        <v>0.85710375409566308</v>
+      </c>
+      <c r="C170">
+        <v>0.99937467832902627</v>
+      </c>
+      <c r="D170">
+        <v>0.99996090765321533</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>1.1143427049554821E-4</v>
+      </c>
+      <c r="B171">
+        <v>0.76184903172798579</v>
+      </c>
+      <c r="C171">
+        <v>0.99942066373422223</v>
+      </c>
+      <c r="D171">
+        <v>0.99994428286475223</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>1.1967591761509831E-4</v>
+      </c>
+      <c r="B172">
+        <v>0.80257172284144696</v>
+      </c>
+      <c r="C172">
+        <v>0.99927416425712856</v>
+      </c>
+      <c r="D172">
+        <v>0.99994016204119252</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>9.2375042673253409E-5</v>
+      </c>
+      <c r="B173">
+        <v>0.73563677464989163</v>
+      </c>
+      <c r="C173">
+        <v>0.99955827555068066</v>
+      </c>
+      <c r="D173">
+        <v>0.99995381247866333</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>6.5918220208054389E-5</v>
+      </c>
+      <c r="B174">
+        <v>0.70367074092691939</v>
+      </c>
+      <c r="C174">
+        <v>0.99971163687914033</v>
+      </c>
+      <c r="D174">
+        <v>0.99996704088989596</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>1.6609571265441709E-5</v>
+      </c>
+      <c r="B175">
+        <v>0.33332502844424516</v>
+      </c>
+      <c r="C175">
+        <v>0.9999584766580768</v>
+      </c>
+      <c r="D175">
+        <v>0.99999169521436726</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>9.2001610028175491E-5</v>
+      </c>
+      <c r="B176">
+        <v>0.82348339896547873</v>
+      </c>
+      <c r="C176">
+        <v>0.99938680029642035</v>
+      </c>
+      <c r="D176">
+        <v>0.99995399919498584</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>8.1190908242095044E-5</v>
+      </c>
+      <c r="B177">
+        <v>0.78719343935203512</v>
+      </c>
+      <c r="C177">
+        <v>0.99953729122322144</v>
+      </c>
+      <c r="D177">
+        <v>0.99995940454587895</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>1.0796221322537112E-4</v>
+      </c>
+      <c r="B178">
+        <v>0.81423171748398637</v>
+      </c>
+      <c r="C178">
+        <v>0.99931088342351138</v>
+      </c>
+      <c r="D178">
+        <v>0.9999460188933873</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>8.4419174971403E-5</v>
+      </c>
+      <c r="B179">
+        <v>0.80765008883821199</v>
+      </c>
+      <c r="C179">
+        <v>0.99947670459336713</v>
+      </c>
+      <c r="D179">
+        <v>0.99995779041251431</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>7.9123313684377106E-5</v>
+      </c>
+      <c r="B182">
+        <v>0.76919120079055714</v>
+      </c>
+      <c r="C182">
+        <v>0.99957807403330956</v>
+      </c>
+      <c r="D182">
+        <v>0.99996043834315784</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>1.1018455913655372E-4</v>
+      </c>
+      <c r="B183">
+        <v>0.79624118911282427</v>
+      </c>
+      <c r="C183">
+        <v>0.99934906785358091</v>
+      </c>
+      <c r="D183">
+        <v>0.99994490772043165</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>4.5966972730093427E-5</v>
+      </c>
+      <c r="B184">
+        <v>0.59997701519295754</v>
+      </c>
+      <c r="C184">
+        <v>0.99983912431141531</v>
+      </c>
+      <c r="D184">
+        <v>0.99997701651363491</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>9.411011824936358E-5</v>
+      </c>
+      <c r="B185">
+        <v>0.78718697708512542</v>
+      </c>
+      <c r="C185">
+        <v>0.99946367900510302</v>
+      </c>
+      <c r="D185">
+        <v>0.99995294494087528</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>2.9002179997196457E-5</v>
+      </c>
+      <c r="B186">
+        <v>0.24998549862962044</v>
+      </c>
+      <c r="C186">
+        <v>0.99993232983546765</v>
+      </c>
+      <c r="D186">
+        <v>0.99998549891000144</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>7.7162809240675085E-5</v>
+      </c>
+      <c r="B187">
+        <v>0.689616586212219</v>
+      </c>
+      <c r="C187">
+        <v>0.99967423833605429</v>
+      </c>
+      <c r="D187">
+        <v>0.99996141859537968</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>3.674967499506176E-5</v>
+      </c>
+      <c r="B188">
+        <v>0.33331495798936989</v>
+      </c>
+      <c r="C188">
+        <v>0.99990812868240697</v>
+      </c>
+      <c r="D188">
+        <v>0.99998162516250255</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>7.9896135024468191E-5</v>
+      </c>
+      <c r="B189">
+        <v>0.77773782252765811</v>
+      </c>
+      <c r="C189">
+        <v>0.99956064227260577</v>
+      </c>
+      <c r="D189">
+        <v>0.99996005193248771</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>7.8184693569308955E-5</v>
+      </c>
+      <c r="B190">
+        <v>0.85710375409566308</v>
+      </c>
+      <c r="C190">
+        <v>0.99937467832902627</v>
+      </c>
+      <c r="D190">
+        <v>0.99996090765321533</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>1.1143427049554821E-4</v>
+      </c>
+      <c r="B191">
+        <v>0.76184903172798579</v>
+      </c>
+      <c r="C191">
+        <v>0.99942066373422223</v>
+      </c>
+      <c r="D191">
+        <v>0.99994428286475223</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>1.1967591761509831E-4</v>
+      </c>
+      <c r="B192">
+        <v>0.80257172284144696</v>
+      </c>
+      <c r="C192">
+        <v>0.99927416425712856</v>
+      </c>
+      <c r="D192">
+        <v>0.99994016204119252</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>9.2375042673253409E-5</v>
+      </c>
+      <c r="B193">
+        <v>0.73563677464989163</v>
+      </c>
+      <c r="C193">
+        <v>0.99955827555068066</v>
+      </c>
+      <c r="D193">
+        <v>0.99995381247866333</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>6.5918220208054389E-5</v>
+      </c>
+      <c r="B194">
+        <v>0.70367074092691939</v>
+      </c>
+      <c r="C194">
+        <v>0.99971163687914033</v>
+      </c>
+      <c r="D194">
+        <v>0.99996704088989596</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>1.6609571265441709E-5</v>
+      </c>
+      <c r="B195">
+        <v>0.33332502844424516</v>
+      </c>
+      <c r="C195">
+        <v>0.9999584766580768</v>
+      </c>
+      <c r="D195">
+        <v>0.99999169521436726</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>9.2001610028175491E-5</v>
+      </c>
+      <c r="B196">
+        <v>0.82348339896547873</v>
+      </c>
+      <c r="C196">
+        <v>0.99938680029642035</v>
+      </c>
+      <c r="D196">
+        <v>0.99995399919498584</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>8.1190908242095044E-5</v>
+      </c>
+      <c r="B197">
+        <v>0.78719343935203512</v>
+      </c>
+      <c r="C197">
+        <v>0.99953729122322144</v>
+      </c>
+      <c r="D197">
+        <v>0.99995940454587895</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>1.0796221322537112E-4</v>
+      </c>
+      <c r="B198">
+        <v>0.81423171748398637</v>
+      </c>
+      <c r="C198">
+        <v>0.99931088342351138</v>
+      </c>
+      <c r="D198">
+        <v>0.9999460188933873</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>8.4419174971403E-5</v>
+      </c>
+      <c r="B199">
+        <v>0.80765008883821199</v>
+      </c>
+      <c r="C199">
+        <v>0.99947670459336713</v>
+      </c>
+      <c r="D199">
+        <v>0.99995779041251431</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>0</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>0</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>0</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>0</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>0</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>0</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>0</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>0</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>0</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>0</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>0</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>0</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>0</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>0</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>0</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>4.2676954657869527E-6</v>
+      </c>
+      <c r="B216">
+        <v>-2.1338522862093386E-6</v>
+      </c>
+      <c r="C216">
+        <v>0.99999146463638833</v>
+      </c>
+      <c r="D216">
+        <v>0.99999786615226716</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>0</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>0</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>0</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>0</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>2.9554539207790575E-5</v>
+      </c>
+      <c r="B221">
+        <v>-1.4777487974819162E-5</v>
+      </c>
+      <c r="C221">
+        <v>0.99994089223179039</v>
+      </c>
+      <c r="D221">
+        <v>0.99998522273039614</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>2.2567964942182221E-4</v>
+      </c>
+      <c r="B222">
+        <v>0.62567341379099994</v>
+      </c>
+      <c r="C222">
+        <v>0.99917161791557219</v>
+      </c>
+      <c r="D222">
+        <v>0.99988716017528911</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>7.6252838358768543E-4</v>
+      </c>
+      <c r="B223">
+        <v>0.69027833113301384</v>
+      </c>
+      <c r="C223">
+        <v>0.9967760756411097</v>
+      </c>
+      <c r="D223">
+        <v>0.99961873580820615</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>1.4495829860374095E-4</v>
+      </c>
+      <c r="B224">
+        <v>0.2221497363181418</v>
+      </c>
+      <c r="C224">
+        <v>0.99966870512676886</v>
+      </c>
+      <c r="D224">
+        <v>0.99992752085069814</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>1.915646460936156E-3</v>
+      </c>
+      <c r="B225">
+        <v>0.69654280535993285</v>
+      </c>
+      <c r="C225">
+        <v>0.99177528294369988</v>
+      </c>
+      <c r="D225">
+        <v>0.999042176769532</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>1.1189272697274678E-3</v>
+      </c>
+      <c r="B226">
+        <v>0.71512485381072843</v>
+      </c>
+      <c r="C226">
+        <v>0.99495731791997577</v>
+      </c>
+      <c r="D226">
+        <v>0.99944053636513619</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>2.6446651893940912E-4</v>
+      </c>
+      <c r="B227">
+        <v>0.68558199679528664</v>
+      </c>
+      <c r="C227">
+        <v>0.99889447309313628</v>
+      </c>
+      <c r="D227">
+        <v>0.99986776674053035</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>7.4459979002285917E-4</v>
+      </c>
+      <c r="B228">
+        <v>0.67979784191433779</v>
+      </c>
+      <c r="C228">
+        <v>0.99693054935587921</v>
+      </c>
+      <c r="D228">
+        <v>0.99962770010498869</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>6.8651473267919677E-4</v>
+      </c>
+      <c r="B229">
+        <v>0.7021879916510515</v>
+      </c>
+      <c r="C229">
+        <v>0.99700876163664254</v>
+      </c>
+      <c r="D229">
+        <v>0.99965674263366044</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>1.2494858886187454E-4</v>
+      </c>
+      <c r="B230">
+        <v>0.66660418066092819</v>
+      </c>
+      <c r="C230">
+        <v>0.99950029151137676</v>
+      </c>
+      <c r="D230">
+        <v>0.99993752570556904</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>0</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>1.3546136690195017E-4</v>
+      </c>
+      <c r="B232">
+        <v>0.74993225096179428</v>
+      </c>
+      <c r="C232">
+        <v>0.99932285831352763</v>
+      </c>
+      <c r="D232">
+        <v>0.99993226931654888</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>5.4873824499790796E-5</v>
+      </c>
+      <c r="B233">
+        <v>0.49997256158209913</v>
+      </c>
+      <c r="C233">
+        <v>0.99983538755991053</v>
+      </c>
+      <c r="D233">
+        <v>0.99997256308775018</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>1.329313168055396E-4</v>
+      </c>
+      <c r="B234">
+        <v>0.47612400209724337</v>
+      </c>
+      <c r="C234">
+        <v>0.99961334058711115</v>
+      </c>
+      <c r="D234">
+        <v>0.99993353434159726</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>2.0981079562180532E-3</v>
+      </c>
+      <c r="B235">
+        <v>0.65866992407823988</v>
+      </c>
+      <c r="C235">
+        <v>0.99175943478710005</v>
+      </c>
+      <c r="D235">
+        <v>0.99895094602189094</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>9.284673904843699E-5</v>
+      </c>
+      <c r="B236">
+        <v>0.55550912733648394</v>
+      </c>
+      <c r="C236">
+        <v>0.99969827853929294</v>
+      </c>
+      <c r="D236">
+        <v>0.99995357663047579</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>1.675401441892366E-4</v>
+      </c>
+      <c r="B237">
+        <v>0.49991621589070351</v>
+      </c>
+      <c r="C237">
+        <v>0.99949746377653192</v>
+      </c>
+      <c r="D237">
+        <v>0.9999162299279053</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>2.7246994000615582E-4</v>
+      </c>
+      <c r="B238">
+        <v>0.68221664775187096</v>
+      </c>
+      <c r="C238">
+        <v>0.99887019645241304</v>
+      </c>
+      <c r="D238">
+        <v>0.99986376502999696</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>9.860196499630243E-5</v>
+      </c>
+      <c r="B239">
+        <v>0.46148915604160295</v>
+      </c>
+      <c r="C239">
+        <v>0.99971830658844718</v>
+      </c>
+      <c r="D239">
+        <v>0.999950699017502</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>1.2144028174145364E-4</v>
+      </c>
+      <c r="B240">
+        <v>0.38882816271425152</v>
+      </c>
+      <c r="C240">
+        <v>0.99967987374987999</v>
+      </c>
+      <c r="D240">
+        <v>0.99993927985912923</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>0</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>0</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>0</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>0</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>0</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>0</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>0</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>1.8976232269082974E-5</v>
+      </c>
+      <c r="B248">
+        <v>-9.4882061597434392E-6</v>
+      </c>
+      <c r="C248">
+        <v>0.99996204807560785</v>
+      </c>
+      <c r="D248">
+        <v>0.99999051188386545</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>0</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>0</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>1.3200231004042571E-5</v>
+      </c>
+      <c r="B251">
+        <v>-6.6001590638334383E-6</v>
+      </c>
+      <c r="C251">
+        <v>0.99997359979936096</v>
+      </c>
+      <c r="D251">
+        <v>0.99999339988449809</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>7.4809155339584777E-5</v>
+      </c>
+      <c r="B252">
+        <v>0.53607481234028898</v>
+      </c>
+      <c r="C252">
+        <v>0.99976583337402714</v>
+      </c>
+      <c r="D252">
+        <v>0.99996259542233024</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>0</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>0</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>0</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>0</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>1.8921893576963224E-5</v>
+      </c>
+      <c r="B257">
+        <v>-9.4610362988425986E-6</v>
+      </c>
+      <c r="C257">
+        <v>0.99996215674990307</v>
+      </c>
+      <c r="D257">
+        <v>0.99999053905321145</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>0</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>1.4120138848032005E-5</v>
+      </c>
+      <c r="B259">
+        <v>-7.0601192689481835E-6</v>
+      </c>
+      <c r="C259">
+        <v>0.99997176002137134</v>
+      </c>
+      <c r="D259">
+        <v>0.99999293993057592</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>0</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>0</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>0</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>0</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>0</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>0</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>0</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>0</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>0</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>0</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>0</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>0</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>0</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>0</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>0</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>0</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>0</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>0</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>0</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>0</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>0</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>0</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>0</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>0</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>0</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>0</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>0</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>0</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>0</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>0</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>0</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>0</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>0</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>0</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>0</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>0</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>0</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>0</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>0</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>0</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>0</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>0</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>0</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>0</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>0</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>0</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>0</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>0</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>0</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>0</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>0</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>0</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>0</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>0</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>0</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>0</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>0</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>0</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>0</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>0</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>0</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>0</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>2.0720020720020721E-4</v>
+      </c>
+      <c r="B322">
+        <v>0.24989638558378091</v>
+      </c>
+      <c r="C322">
+        <v>0.99951661394350377</v>
+      </c>
+      <c r="D322">
+        <v>0.99989639989639989</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>8.0475726508991724E-5</v>
+      </c>
+      <c r="B323">
+        <v>0.26311765467613712</v>
+      </c>
+      <c r="C323">
+        <v>0.99981031965661138</v>
+      </c>
+      <c r="D323">
+        <v>0.99995976213674553</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>0</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>0</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>0</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>0</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>8.2553659878921291E-6</v>
+      </c>
+      <c r="B328">
+        <v>-3.8916329109075402E-6</v>
+      </c>
+      <c r="C328">
+        <v>0.99998348937403692</v>
+      </c>
+      <c r="D328">
+        <v>0.99999587231700604</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>0</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>0</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>2.3173896922506489E-4</v>
+      </c>
+      <c r="B331">
+        <v>0.46416981973430338</v>
+      </c>
+      <c r="C331">
+        <v>0.99933582888697736</v>
+      </c>
+      <c r="D331">
+        <v>0.99988413051538749</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>1.0573395222940038E-4</v>
+      </c>
+      <c r="B332">
+        <v>0.16661379633643864</v>
+      </c>
+      <c r="C332">
+        <v>0.99976740453412538</v>
+      </c>
+      <c r="D332">
+        <v>0.99994713302388527</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>1.5244367206317265E-5</v>
+      </c>
+      <c r="B333">
+        <v>-7.6222417012843473E-6</v>
+      </c>
+      <c r="C333">
+        <v>0.99996951161417347</v>
+      </c>
+      <c r="D333">
+        <v>0.99999237781639683</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>7.2645381569866693E-5</v>
+      </c>
+      <c r="B334">
+        <v>0.14282081862706519</v>
+      </c>
+      <c r="C334">
+        <v>0.99984261054214763</v>
+      </c>
+      <c r="D334">
+        <v>0.99996367730921509</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>0</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>0</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>0</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>0</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>0</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>0</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>1.9500304692260815E-5</v>
+      </c>
+      <c r="B341">
+        <v>-9.7502474125280919E-6</v>
+      </c>
+      <c r="C341">
+        <v>0.9999609999610084</v>
+      </c>
+      <c r="D341">
+        <v>0.99999024984765394</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>5.0923497629511186E-5</v>
+      </c>
+      <c r="B342">
+        <v>0.16664120413986735</v>
+      </c>
+      <c r="C342">
+        <v>0.99988797276552355</v>
+      </c>
+      <c r="D342">
+        <v>0.99997453825118521</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>2.0493378077208801E-5</v>
+      </c>
+      <c r="B343">
+        <v>-1.0246794034316508E-5</v>
+      </c>
+      <c r="C343">
+        <v>0.99995901387381336</v>
+      </c>
+      <c r="D343">
+        <v>0.9999897533109614</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>0</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>0</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>0</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>0</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>0</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>0</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>0</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>0</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>0</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>0</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>0</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>0</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>0</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>0</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>0</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>0</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>0</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>0</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>1.9870125983780709E-3</v>
+      </c>
+      <c r="B362">
+        <v>0.80073200295806013</v>
+      </c>
+      <c r="C362">
+        <v>0.98804827880941537</v>
+      </c>
+      <c r="D362">
+        <v>0.99900649370081096</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>7.2513069215963347E-3</v>
+      </c>
+      <c r="B363">
+        <v>0.84329903320481692</v>
+      </c>
+      <c r="C363">
+        <v>0.9465264860003636</v>
+      </c>
+      <c r="D363">
+        <v>0.99637434653920187</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>1.0323575688601155E-3</v>
+      </c>
+      <c r="B364">
+        <v>0.86921051760028645</v>
+      </c>
+      <c r="C364">
+        <v>0.99107706396622386</v>
+      </c>
+      <c r="D364">
+        <v>0.99948382121557</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>1.4933333333333333E-2</v>
+      </c>
+      <c r="B365">
+        <v>0.84289806471080708</v>
+      </c>
+      <c r="C365">
+        <v>0.8902347352797535</v>
+      </c>
+      <c r="D365">
+        <v>0.99253333333333338</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>5.4282161149060816E-3</v>
+      </c>
+      <c r="B366">
+        <v>0.79107106430247165</v>
+      </c>
+      <c r="C366">
+        <v>0.96862009194330123</v>
+      </c>
+      <c r="D366">
+        <v>0.99728589194254691</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>5.8492545379406811E-4</v>
+      </c>
+      <c r="B367">
+        <v>0.6930405914235106</v>
+      </c>
+      <c r="C367">
+        <v>0.99750987009557979</v>
+      </c>
+      <c r="D367">
+        <v>0.99970753727310291</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>5.06928641468243E-3</v>
+      </c>
+      <c r="B368">
+        <v>0.67356850985097483</v>
+      </c>
+      <c r="C368">
+        <v>0.97942701773623375</v>
+      </c>
+      <c r="D368">
+        <v>0.9974653567926588</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>4.9811799772633229E-4</v>
+      </c>
+      <c r="B369">
+        <v>0.76313175344319306</v>
+      </c>
+      <c r="C369">
+        <v>0.99739939541222655</v>
+      </c>
+      <c r="D369">
+        <v>0.99975094100113682</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>8.4333742351983736E-4</v>
+      </c>
+      <c r="B370">
+        <v>0.70107027211399686</v>
+      </c>
+      <c r="C370">
+        <v>0.99633618424775683</v>
+      </c>
+      <c r="D370">
+        <v>0.99957833128824014</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>2.6166936331482751E-4</v>
+      </c>
+      <c r="B371">
+        <v>0.49986913107395398</v>
+      </c>
+      <c r="C371">
+        <v>0.99921519732262254</v>
+      </c>
+      <c r="D371">
+        <v>0.99986916531834258</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>2.5798102179215923E-3</v>
+      </c>
+      <c r="B372">
+        <v>0.76198427755317377</v>
+      </c>
+      <c r="C372">
+        <v>0.98658802249230171</v>
+      </c>
+      <c r="D372">
+        <v>0.99871009489103924</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>6.4230911839365679E-3</v>
+      </c>
+      <c r="B373">
+        <v>0.63563191901673799</v>
+      </c>
+      <c r="C373">
+        <v>0.97599019481520333</v>
+      </c>
+      <c r="D373">
+        <v>0.99678845440803165</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>2.9273974240982522E-3</v>
+      </c>
+      <c r="B374">
+        <v>0.53893996980475289</v>
+      </c>
+      <c r="C374">
+        <v>0.99073189866096689</v>
+      </c>
+      <c r="D374">
+        <v>0.9985363012879509</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>6.2895968368427587E-4</v>
+      </c>
+      <c r="B375">
+        <v>0.57731085661326775</v>
+      </c>
+      <c r="C375">
+        <v>0.9978834400743789</v>
+      </c>
+      <c r="D375">
+        <v>0.99968552015815781</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>3.9506633692625946E-3</v>
+      </c>
+      <c r="B376">
+        <v>0.64304517518379223</v>
+      </c>
+      <c r="C376">
+        <v>0.98499727565454254</v>
+      </c>
+      <c r="D376">
+        <v>0.99802466831536873</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>7.1457861743932241E-3</v>
+      </c>
+      <c r="B377">
+        <v>0.6962166146473765</v>
+      </c>
+      <c r="C377">
+        <v>0.96938283383260471</v>
+      </c>
+      <c r="D377">
+        <v>0.99642710691280334</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>2.5608340136337895E-3</v>
+      </c>
+      <c r="B378">
+        <v>0.63507869488929891</v>
+      </c>
+      <c r="C378">
+        <v>0.99042822726885271</v>
+      </c>
+      <c r="D378">
+        <v>0.99871958299318309</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>4.0669001368597094E-3</v>
+      </c>
+      <c r="B379">
+        <v>0.64938332254036357</v>
+      </c>
+      <c r="C379">
+        <v>0.98435036647911167</v>
+      </c>
+      <c r="D379">
+        <v>0.99796654993157008</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>1.2343393198790349E-4</v>
+      </c>
+      <c r="B380">
+        <v>0.70582062302191928</v>
+      </c>
+      <c r="C380">
+        <v>0.99945699399889631</v>
+      </c>
+      <c r="D380">
+        <v>0.999938283034006</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>0</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>1.9870125983780709E-3</v>
+      </c>
+      <c r="B382">
+        <v>0.80073200295806013</v>
+      </c>
+      <c r="C382">
+        <v>0.98804827880941537</v>
+      </c>
+      <c r="D382">
+        <v>0.99900649370081096</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>7.2513069215963347E-3</v>
+      </c>
+      <c r="B383">
+        <v>0.84329903320481692</v>
+      </c>
+      <c r="C383">
+        <v>0.9465264860003636</v>
+      </c>
+      <c r="D383">
+        <v>0.99637434653920187</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>1.0323575688601155E-3</v>
+      </c>
+      <c r="B384">
+        <v>0.86921051760028645</v>
+      </c>
+      <c r="C384">
+        <v>0.99107706396622386</v>
+      </c>
+      <c r="D384">
+        <v>0.99948382121557</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>1.4933333333333333E-2</v>
+      </c>
+      <c r="B385">
+        <v>0.84289806471080708</v>
+      </c>
+      <c r="C385">
+        <v>0.8902347352797535</v>
+      </c>
+      <c r="D385">
+        <v>0.99253333333333338</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>5.4282161149060816E-3</v>
+      </c>
+      <c r="B386">
+        <v>0.79107106430247165</v>
+      </c>
+      <c r="C386">
+        <v>0.96862009194330123</v>
+      </c>
+      <c r="D386">
+        <v>0.99728589194254691</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>5.8492545379406811E-4</v>
+      </c>
+      <c r="B387">
+        <v>0.6930405914235106</v>
+      </c>
+      <c r="C387">
+        <v>0.99750987009557979</v>
+      </c>
+      <c r="D387">
+        <v>0.99970753727310291</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>5.06928641468243E-3</v>
+      </c>
+      <c r="B388">
+        <v>0.67356850985097483</v>
+      </c>
+      <c r="C388">
+        <v>0.97942701773623375</v>
+      </c>
+      <c r="D388">
+        <v>0.9974653567926588</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>4.9811799772633229E-4</v>
+      </c>
+      <c r="B389">
+        <v>0.76313175344319306</v>
+      </c>
+      <c r="C389">
+        <v>0.99739939541222655</v>
+      </c>
+      <c r="D389">
+        <v>0.99975094100113682</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>8.4333742351983736E-4</v>
+      </c>
+      <c r="B390">
+        <v>0.70107027211399686</v>
+      </c>
+      <c r="C390">
+        <v>0.99633618424775683</v>
+      </c>
+      <c r="D390">
+        <v>0.99957833128824014</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>2.6166936331482751E-4</v>
+      </c>
+      <c r="B391">
+        <v>0.49986913107395398</v>
+      </c>
+      <c r="C391">
+        <v>0.99921519732262254</v>
+      </c>
+      <c r="D391">
+        <v>0.99986916531834258</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>2.5798102179215923E-3</v>
+      </c>
+      <c r="B392">
+        <v>0.76198427755317377</v>
+      </c>
+      <c r="C392">
+        <v>0.98658802249230171</v>
+      </c>
+      <c r="D392">
+        <v>0.99871009489103924</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>6.4230911839365679E-3</v>
+      </c>
+      <c r="B393">
+        <v>0.63563191901673799</v>
+      </c>
+      <c r="C393">
+        <v>0.97599019481520333</v>
+      </c>
+      <c r="D393">
+        <v>0.99678845440803165</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>2.9273974240982522E-3</v>
+      </c>
+      <c r="B394">
+        <v>0.53893996980475289</v>
+      </c>
+      <c r="C394">
+        <v>0.99073189866096689</v>
+      </c>
+      <c r="D394">
+        <v>0.9985363012879509</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>6.2895968368427587E-4</v>
+      </c>
+      <c r="B395">
+        <v>0.57731085661326775</v>
+      </c>
+      <c r="C395">
+        <v>0.9978834400743789</v>
+      </c>
+      <c r="D395">
+        <v>0.99968552015815781</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>3.9506633692625946E-3</v>
+      </c>
+      <c r="B396">
+        <v>0.64304517518379223</v>
+      </c>
+      <c r="C396">
+        <v>0.98499727565454254</v>
+      </c>
+      <c r="D396">
+        <v>0.99802466831536873</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>7.1457861743932241E-3</v>
+      </c>
+      <c r="B397">
+        <v>0.6962166146473765</v>
+      </c>
+      <c r="C397">
+        <v>0.96938283383260471</v>
+      </c>
+      <c r="D397">
+        <v>0.99642710691280334</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>2.5608340136337895E-3</v>
+      </c>
+      <c r="B398">
+        <v>0.63507869488929891</v>
+      </c>
+      <c r="C398">
+        <v>0.99042822726885271</v>
+      </c>
+      <c r="D398">
+        <v>0.99871958299318309</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>4.0669001368597094E-3</v>
+      </c>
+      <c r="B399">
+        <v>0.64938332254036357</v>
+      </c>
+      <c r="C399">
+        <v>0.98435036647911167</v>
+      </c>
+      <c r="D399">
+        <v>0.99796654993157008</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>1.2343393198790349E-4</v>
+      </c>
+      <c r="B400">
+        <v>0.70582062302191928</v>
+      </c>
+      <c r="C400">
+        <v>0.99945699399889631</v>
+      </c>
+      <c r="D400">
+        <v>0.999938283034006</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>